--- a/rnaSample/rnaSample_H.BROWN_09.19.20.xlsx
+++ b/rnaSample/rnaSample_H.BROWN_09.19.20.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92F05DEE-DBC9-6B4F-8400-F3027594BC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA696170-CCF9-A94A-9F00-68E56FC68575}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="22720" windowHeight="14640" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029" iterateDelta="1E-4"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -49,18 +49,6 @@
   </si>
   <si>
     <t>roboticRNAPrep</t>
-  </si>
-  <si>
-    <t>RIBOSOMAL_BAND</t>
-  </si>
-  <si>
-    <t>RIBOSOMAL_BAND_SHAPE</t>
-  </si>
-  <si>
-    <t>SMALL_RNA_BANDS</t>
-  </si>
-  <si>
-    <t>RIN</t>
   </si>
   <si>
     <t>H.BROWN</t>
@@ -428,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:H29"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D29"/>
+      <selection activeCell="I1" sqref="I1:M1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -439,7 +427,7 @@
     <col min="1" max="1025" width="10.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,745 +452,733 @@
       <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F3">
         <v>2</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4">
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F5">
         <v>4</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F6">
         <v>5</v>
       </c>
       <c r="G6" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F7">
         <v>6</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F8">
         <v>7</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F9">
         <v>8</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F10">
         <v>9</v>
       </c>
       <c r="G10" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F11">
         <v>10</v>
       </c>
       <c r="G11" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F12">
         <v>11</v>
       </c>
       <c r="G12" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F13">
         <v>12</v>
       </c>
       <c r="G13" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F14">
         <v>13</v>
       </c>
       <c r="G14" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H14" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F15">
         <v>14</v>
       </c>
       <c r="G15" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F16">
         <v>15</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H16" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F17">
         <v>16</v>
       </c>
       <c r="G17" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F18">
         <v>17</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F19">
         <v>18</v>
       </c>
       <c r="G19" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F20">
         <v>19</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H20" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C21">
         <v>20</v>
       </c>
       <c r="D21" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F21">
         <v>20</v>
       </c>
       <c r="G21" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C22">
         <v>21</v>
       </c>
       <c r="D22" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F22">
         <v>21</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C23">
         <v>22</v>
       </c>
       <c r="D23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F23">
         <v>22</v>
       </c>
       <c r="G23" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C24">
         <v>23</v>
       </c>
       <c r="D24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F24">
         <v>23</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C25">
         <v>24</v>
       </c>
       <c r="D25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F25">
         <v>24</v>
       </c>
       <c r="G25" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H25" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C26">
         <v>25</v>
       </c>
       <c r="D26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F26">
         <v>25</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H26" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C27">
         <v>26</v>
       </c>
       <c r="D27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F27">
         <v>26</v>
       </c>
       <c r="G27" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H27" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C28">
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F28">
         <v>27</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H28" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C29">
         <v>28</v>
       </c>
       <c r="D29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F29">
         <v>28</v>
       </c>
       <c r="G29" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
